--- a/res/分区信息.xlsx
+++ b/res/分区信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PCwinResouceDisk\Other\idea\project\BiBiBSPUserVideoMonkeyScript\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929BB0C2-FA0C-445A-9A0F-E379E502591A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45E75E8-F0E7-4F31-A30D-0D379F263AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$B$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$B$141</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
   <si>
     <t>trd</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>社会</t>
-  </si>
-  <si>
-    <t>广告(主分区)</t>
   </si>
   <si>
     <t>娱乐(主分区)</t>
@@ -524,22 +521,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -855,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -904,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -912,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -968,7 +950,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1064,7 +1046,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1104,7 +1086,7 @@
         <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1144,7 +1126,7 @@
         <v>83</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1152,7 +1134,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1248,7 +1230,7 @@
         <v>137</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1264,7 +1246,7 @@
         <v>145</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1272,7 +1254,7 @@
         <v>146</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1280,7 +1262,7 @@
         <v>147</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1389,7 +1371,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>112</v>
@@ -1397,66 +1379,66 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1464,28 +1446,28 @@
         <v>176</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>130</v>
@@ -1493,7 +1475,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>131</v>
@@ -1501,15 +1483,15 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>123</v>
@@ -1517,7 +1499,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>124</v>
@@ -1525,23 +1507,23 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>139</v>
@@ -1549,359 +1531,359 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>120</v>
@@ -1909,112 +1891,104 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>253</v>
-      </c>
-      <c r="B142" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B142" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B142">
-      <sortCondition ref="A1:A142"/>
+  <autoFilter ref="A1:B141" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B141">
+      <sortCondition ref="A1:A141"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:B124">
-    <sortCondition sortBy="cellColor" ref="A124"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:B123">
+    <sortCondition sortBy="cellColor" ref="A123"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B142">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text=" (已下线)">
+  <conditionalFormatting sqref="B2:B141">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text=" (已下线)">
       <formula>NOT(ISERROR(SEARCH(" (已下线)",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/res/分区信息.xlsx
+++ b/res/分区信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PCwinResouceDisk\Other\idea\project\BiBiBSPUserVideoMonkeyScript\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45E75E8-F0E7-4F31-A30D-0D379F263AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB398EB5-4755-40CF-86E4-3FDEB9C7FCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$B$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$B$136</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
   <si>
     <t>trd</t>
   </si>
@@ -277,18 +277,6 @@
     <t>日常</t>
   </si>
   <si>
-    <t>美食圈 (重定向)</t>
-  </si>
-  <si>
-    <t>动物圈 (重定向)</t>
-  </si>
-  <si>
-    <t>运动 (重定向)</t>
-  </si>
-  <si>
-    <t>汽车 (重定向)</t>
-  </si>
-  <si>
     <t>美食(主分区)</t>
   </si>
   <si>
@@ -359,9 +347,6 @@
   </si>
   <si>
     <t>时尚潮流</t>
-  </si>
-  <si>
-    <t>健身 (重定向)</t>
   </si>
   <si>
     <t>资讯(主分区)</t>
@@ -449,7 +434,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -463,6 +451,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -507,21 +502,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -837,15 +860,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -858,7 +881,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -866,7 +889,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -874,7 +897,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -882,23 +905,23 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -906,7 +929,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -914,7 +937,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -922,7 +945,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -930,7 +953,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -938,23 +961,23 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -962,7 +985,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -970,15 +993,15 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -986,7 +1009,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -994,7 +1017,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1002,7 +1025,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1010,7 +1033,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1018,7 +1041,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1026,7 +1049,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1034,7 +1057,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1042,15 +1065,15 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1058,7 +1081,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1066,7 +1089,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1074,7 +1097,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1082,913 +1105,876 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>75</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>76</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>83</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>85</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>86</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>95</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>119</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>121</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>122</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>124</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>126</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>127</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>129</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>130</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>136</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>137</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>138</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>145</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>146</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>147</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>152</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>153</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>154</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>155</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>156</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>157</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>158</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>159</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>160</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>161</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>162</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>164</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>167</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>168</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>169</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>170</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>171</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>172</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>173</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>176</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>177</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>178</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>179</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>180</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>181</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>182</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>75</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>75</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>76</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>183</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>184</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>185</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>187</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>188</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>193</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>195</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>198</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>199</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>200</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>201</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>202</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>203</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>204</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>205</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>206</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>207</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>208</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>209</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>210</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>211</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>76</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>212</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>213</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>214</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>215</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>83</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>85</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>86</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>95</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>119</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>216</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>121</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>122</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>124</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>126</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>127</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>129</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>130</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>136</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>137</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>138</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>145</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>146</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>147</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>152</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>153</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>154</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>155</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>156</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>157</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>158</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>159</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>160</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>161</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>162</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>163</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>164</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>165</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>167</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>168</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>169</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>170</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>171</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>172</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>173</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>176</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>176</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>177</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>178</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
-        <v>179</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>180</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>181</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>182</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>183</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>184</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>185</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>187</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>188</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>193</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>195</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>198</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>199</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>200</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>201</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>202</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>203</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>204</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>205</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
-        <v>206</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
-        <v>207</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
-        <v>208</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
-        <v>209</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
-        <v>210</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
-        <v>211</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
-        <v>212</v>
+      <c r="A103" s="3">
+        <v>217</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
-        <v>213</v>
+      <c r="A104" s="3">
+        <v>218</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
-        <v>214</v>
+      <c r="A105" s="3">
+        <v>219</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
-        <v>215</v>
+      <c r="A106" s="3">
+        <v>220</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
-        <v>216</v>
+      <c r="A107" s="3">
+        <v>221</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>222</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>223</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>227</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>228</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>229</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>230</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>231</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>232</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>233</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>234</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>235</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>236</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>237</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>238</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>239</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>240</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>241</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>242</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>243</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>244</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>245</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>246</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>247</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>248</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>249</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>250</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>251</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>252</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
-        <v>217</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
-        <v>218</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
-        <v>219</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
-        <v>220</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
-        <v>221</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
-        <v>222</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
-        <v>223</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
-        <v>227</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>228</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
-        <v>229</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
-        <v>230</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
-        <v>231</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
-        <v>232</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>233</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>234</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>235</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>236</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>237</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
-        <v>238</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
-        <v>239</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
-        <v>240</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
-        <v>241</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
-        <v>242</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
-        <v>243</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
-        <v>244</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>245</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>246</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>247</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
-        <v>248</v>
+      <c r="A136" s="3">
+        <v>253</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>249</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
-        <v>250</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
-        <v>251</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>252</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>253</v>
-      </c>
-      <c r="B141" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B141" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B141">
-      <sortCondition ref="A1:A141"/>
+  <autoFilter ref="A1:B136" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B136">
+      <sortCondition sortBy="fontColor" ref="B1:B136" dxfId="4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:B123">
-    <sortCondition sortBy="cellColor" ref="A123"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:B118">
+    <sortCondition sortBy="cellColor" ref="A118"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B141">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text=" (已下线)">
+  <conditionalFormatting sqref="B2:B136">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="重定向">
+      <formula>NOT(ISERROR(SEARCH("重定向",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text=" (已下线)">
       <formula>NOT(ISERROR(SEARCH(" (已下线)",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
